--- a/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole_preprocessed.xlsx
+++ b/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole_preprocessed.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="2237">
   <si>
     <t>ID</t>
   </si>

--- a/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole_preprocessed.xlsx
+++ b/emotionTargetDetection/risultatiRegoleUnificati/TargetRiconosciutiDaRegole_preprocessed.xlsx
@@ -7074,9 +7074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L748"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A721" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B728" sqref="B728"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A728" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J680" sqref="J680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="14" t="s">
-        <v>1798</v>
+        <v>7</v>
       </c>
       <c r="K209" t="s">
         <v>214</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="I324" s="3"/>
       <c r="J324" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K324" t="s">
         <v>685</v>
@@ -20017,8 +20017,8 @@
         <v>107</v>
       </c>
       <c r="I498" s="3"/>
-      <c r="J498" s="1" t="s">
-        <v>4</v>
+      <c r="J498" s="14" t="s">
+        <v>1798</v>
       </c>
       <c r="K498" t="s">
         <v>107</v>
@@ -21573,7 +21573,7 @@
       <c r="I558" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J558" s="3" t="s">
+      <c r="J558" s="15" t="s">
         <v>67</v>
       </c>
       <c r="K558" t="s">
